--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 1 " sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="79">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -539,6 +539,12 @@
       </rPr>
       <t xml:space="preserve">        2 0 2 1</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTOR CHILCHOA </t>
+  </si>
+  <si>
+    <t>VICERAS  MAICK</t>
   </si>
 </sst>
 </file>
@@ -25515,10 +25521,10 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomRight" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29336,11 +29342,15 @@
       <c r="E145" s="27">
         <v>3786</v>
       </c>
-      <c r="F145" s="216"/>
-      <c r="G145" s="92"/>
+      <c r="F145" s="216">
+        <v>44441</v>
+      </c>
+      <c r="G145" s="92">
+        <v>3786</v>
+      </c>
       <c r="H145" s="28">
         <f t="shared" si="0"/>
-        <v>3786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -29432,11 +29442,15 @@
       <c r="E149" s="27">
         <v>1744</v>
       </c>
-      <c r="F149" s="216"/>
-      <c r="G149" s="92"/>
+      <c r="F149" s="216">
+        <v>44441</v>
+      </c>
+      <c r="G149" s="92">
+        <v>1744</v>
+      </c>
       <c r="H149" s="28">
         <f t="shared" si="0"/>
-        <v>1744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -29502,11 +29516,15 @@
       <c r="E152" s="27">
         <v>1617</v>
       </c>
-      <c r="F152" s="216"/>
-      <c r="G152" s="92"/>
+      <c r="F152" s="216">
+        <v>44440</v>
+      </c>
+      <c r="G152" s="92">
+        <v>1617</v>
+      </c>
       <c r="H152" s="28">
         <f t="shared" si="0"/>
-        <v>1617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -29562,11 +29580,11 @@
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>754612</v>
+        <v>761759</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>12186</v>
+        <v>5039</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -29610,7 +29628,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="221">
         <f>E156-G156</f>
-        <v>12186</v>
+        <v>5039</v>
       </c>
       <c r="F160" s="222"/>
       <c r="G160" s="223"/>
@@ -29757,7 +29775,7 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29825,15 +29843,25 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11">
+        <v>44440</v>
+      </c>
       <c r="B4" s="12">
         <v>2442</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="25"/>
+      <c r="D4" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="19">
+        <v>33284</v>
+      </c>
+      <c r="F4" s="47">
+        <v>44442</v>
+      </c>
+      <c r="G4" s="25">
+        <v>33284</v>
+      </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H155" si="0">E4-G4</f>
         <v>0</v>
@@ -29841,291 +29869,435 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11">
+        <v>44440</v>
+      </c>
       <c r="B5" s="12">
         <f>B4+1</f>
         <v>2443</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4939</v>
+      </c>
+      <c r="F5" s="49">
+        <v>44441</v>
+      </c>
+      <c r="G5" s="27">
+        <v>4939</v>
+      </c>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="11">
+        <v>44440</v>
+      </c>
       <c r="B6" s="12">
         <f t="shared" ref="B6:B69" si="1">B5+1</f>
         <v>2444</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4601</v>
+      </c>
+      <c r="F6" s="49">
+        <v>44442</v>
+      </c>
+      <c r="G6" s="27">
+        <v>4601</v>
+      </c>
       <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="18">
+        <v>44441</v>
+      </c>
       <c r="B7" s="12">
         <f t="shared" si="1"/>
         <v>2445</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3021</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="27"/>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11">
+        <v>44441</v>
+      </c>
       <c r="B8" s="12">
         <f t="shared" si="1"/>
         <v>2446</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="27"/>
+      <c r="D8" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2008</v>
+      </c>
+      <c r="F8" s="49">
+        <v>44442</v>
+      </c>
+      <c r="G8" s="27">
+        <v>2008</v>
+      </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="11">
+        <v>44441</v>
+      </c>
       <c r="B9" s="12">
         <f t="shared" si="1"/>
         <v>2447</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="27"/>
+      <c r="D9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1006</v>
+      </c>
+      <c r="F9" s="49">
+        <v>44442</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1006</v>
+      </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="11">
+        <v>44442</v>
+      </c>
       <c r="B10" s="12">
         <f t="shared" si="1"/>
         <v>2448</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="27"/>
+      <c r="D10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2013</v>
+      </c>
+      <c r="F10" s="49">
+        <v>44443</v>
+      </c>
+      <c r="G10" s="27">
+        <v>2013</v>
+      </c>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11">
+        <v>44442</v>
+      </c>
       <c r="B11" s="12">
         <f t="shared" si="1"/>
         <v>2449</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="27"/>
+      <c r="D11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20">
+        <v>3811</v>
+      </c>
+      <c r="F11" s="49">
+        <v>44443</v>
+      </c>
+      <c r="G11" s="27">
+        <v>3811</v>
+      </c>
       <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11">
+        <v>44442</v>
+      </c>
       <c r="B12" s="12">
         <f t="shared" si="1"/>
         <v>2450</v>
       </c>
       <c r="C12" s="21"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2546</v>
+      </c>
       <c r="F12" s="49"/>
       <c r="G12" s="27"/>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11">
+        <v>44442</v>
+      </c>
       <c r="B13" s="12">
         <f t="shared" si="1"/>
         <v>2451</v>
       </c>
       <c r="C13" s="48"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="20">
+        <v>33406</v>
+      </c>
       <c r="F13" s="49"/>
       <c r="G13" s="27"/>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33406</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11">
+        <v>44442</v>
+      </c>
       <c r="B14" s="12">
         <f t="shared" si="1"/>
         <v>2452</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="27"/>
+      <c r="D14" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1167</v>
+      </c>
+      <c r="F14" s="49">
+        <v>44443</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1167</v>
+      </c>
       <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="11">
+        <v>44442</v>
+      </c>
       <c r="B15" s="12">
         <f t="shared" si="1"/>
         <v>2453</v>
       </c>
       <c r="C15" s="48"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="27"/>
+      <c r="D15" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="20">
+        <v>7342</v>
+      </c>
+      <c r="F15" s="49">
+        <v>44443</v>
+      </c>
+      <c r="G15" s="27">
+        <v>7342</v>
+      </c>
       <c r="H15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="11">
+        <v>44442</v>
+      </c>
       <c r="B16" s="12">
         <f t="shared" si="1"/>
         <v>2454</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="27"/>
+      <c r="D16" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3702</v>
+      </c>
+      <c r="F16" s="49">
+        <v>44443</v>
+      </c>
+      <c r="G16" s="27">
+        <v>3702</v>
+      </c>
       <c r="H16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="11">
+        <v>44443</v>
+      </c>
       <c r="B17" s="12">
         <f t="shared" si="1"/>
         <v>2455</v>
       </c>
       <c r="C17" s="48"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="20">
+        <v>90</v>
+      </c>
       <c r="F17" s="49"/>
       <c r="G17" s="27"/>
       <c r="H17" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11">
+        <v>44443</v>
+      </c>
       <c r="B18" s="12">
         <f t="shared" si="1"/>
         <v>2456</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="20">
+        <v>2556</v>
+      </c>
       <c r="F18" s="49"/>
       <c r="G18" s="27"/>
       <c r="H18" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11">
+        <v>44443</v>
+      </c>
       <c r="B19" s="12">
         <f t="shared" si="1"/>
         <v>2457</v>
       </c>
       <c r="C19" s="48"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2595</v>
+      </c>
       <c r="F19" s="49"/>
       <c r="G19" s="27"/>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="11">
+        <v>44443</v>
+      </c>
       <c r="B20" s="12">
         <f t="shared" si="1"/>
         <v>2458</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="20">
+        <v>4220</v>
+      </c>
       <c r="F20" s="49"/>
       <c r="G20" s="27"/>
       <c r="H20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="11">
+        <v>44443</v>
+      </c>
       <c r="B21" s="12">
         <f t="shared" si="1"/>
         <v>2459</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="20">
+        <v>15057</v>
+      </c>
       <c r="F21" s="49"/>
       <c r="G21" s="27"/>
       <c r="H21" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15057</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="11">
+        <v>44443</v>
+      </c>
       <c r="B22" s="12">
         <f t="shared" si="1"/>
         <v>2460</v>
       </c>
       <c r="C22" s="21"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="20">
+        <v>220</v>
+      </c>
       <c r="F22" s="49"/>
       <c r="G22" s="27"/>
       <c r="H22" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -32334,16 +32506,16 @@
       <c r="D156" s="2"/>
       <c r="E156" s="37">
         <f>SUM(E4:E155)</f>
-        <v>0</v>
+        <v>127584</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>0</v>
+        <v>63873</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>0</v>
+        <v>63711</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -32387,7 +32559,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="221">
         <f>E156-G156</f>
-        <v>0</v>
+        <v>63711</v>
       </c>
       <c r="F160" s="222"/>
       <c r="G160" s="223"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 1 " sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="82">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -545,6 +545,15 @@
   </si>
   <si>
     <t>VICERAS  MAICK</t>
+  </si>
+  <si>
+    <t>PASTOR 2</t>
+  </si>
+  <si>
+    <t>EL PASTOR 1</t>
+  </si>
+  <si>
+    <t>FOGONCITO</t>
   </si>
 </sst>
 </file>
@@ -5763,8 +5772,8 @@
   </sheetPr>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7206,8 +7215,12 @@
       <c r="A39" s="30">
         <v>36</v>
       </c>
-      <c r="B39" s="176"/>
-      <c r="C39" s="177"/>
+      <c r="B39" s="176">
+        <v>44463</v>
+      </c>
+      <c r="C39" s="177">
+        <v>15200.39</v>
+      </c>
       <c r="D39" s="178" t="s">
         <v>16</v>
       </c>
@@ -7236,8 +7249,12 @@
       <c r="A40" s="30">
         <v>37</v>
       </c>
-      <c r="B40" s="176"/>
-      <c r="C40" s="177"/>
+      <c r="B40" s="176">
+        <v>44464</v>
+      </c>
+      <c r="C40" s="177">
+        <v>15740.75</v>
+      </c>
       <c r="D40" s="178" t="s">
         <v>16</v>
       </c>
@@ -7266,8 +7283,12 @@
       <c r="A41" s="30">
         <v>38</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="177"/>
+      <c r="B41" s="176">
+        <v>44467</v>
+      </c>
+      <c r="C41" s="177">
+        <v>14179.05</v>
+      </c>
       <c r="D41" s="178" t="s">
         <v>16</v>
       </c>
@@ -7296,8 +7317,12 @@
       <c r="A42" s="30">
         <v>39</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="177"/>
+      <c r="B42" s="176">
+        <v>44468</v>
+      </c>
+      <c r="C42" s="177">
+        <v>13389.48</v>
+      </c>
       <c r="D42" s="178" t="s">
         <v>16</v>
       </c>
@@ -25521,10 +25546,10 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F150" sqref="F150"/>
+      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28960,11 +28985,15 @@
       <c r="E130" s="27">
         <v>3046</v>
       </c>
-      <c r="F130" s="216"/>
-      <c r="G130" s="92"/>
+      <c r="F130" s="216">
+        <v>44445</v>
+      </c>
+      <c r="G130" s="92">
+        <v>3046</v>
+      </c>
       <c r="H130" s="28">
         <f t="shared" si="0"/>
-        <v>3046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -29494,11 +29523,15 @@
       <c r="E151" s="27">
         <v>60</v>
       </c>
-      <c r="F151" s="216"/>
-      <c r="G151" s="92"/>
+      <c r="F151" s="216">
+        <v>44445</v>
+      </c>
+      <c r="G151" s="92">
+        <v>60</v>
+      </c>
       <c r="H151" s="28">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -29580,11 +29613,11 @@
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>761759</v>
+        <v>764865</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>5039</v>
+        <v>1933</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -29628,7 +29661,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="221">
         <f>E156-G156</f>
-        <v>5039</v>
+        <v>1933</v>
       </c>
       <c r="F160" s="222"/>
       <c r="G160" s="223"/>
@@ -29774,8 +29807,9 @@
   </sheetPr>
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29935,11 +29969,15 @@
       <c r="E7" s="20">
         <v>3021</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="49">
+        <v>44446</v>
+      </c>
+      <c r="G7" s="27">
+        <v>3021</v>
+      </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>3021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -30061,11 +30099,15 @@
       <c r="E12" s="20">
         <v>2546</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="49">
+        <v>44448</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2546</v>
+      </c>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
-        <v>2546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -30083,11 +30125,15 @@
       <c r="E13" s="20">
         <v>33406</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="49">
+        <v>44445</v>
+      </c>
+      <c r="G13" s="27">
+        <v>33406</v>
+      </c>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
-        <v>33406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -30183,11 +30229,15 @@
       <c r="E17" s="20">
         <v>90</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="49">
+        <v>44450</v>
+      </c>
+      <c r="G17" s="27">
+        <v>90</v>
+      </c>
       <c r="H17" s="16">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -30205,11 +30255,15 @@
       <c r="E18" s="20">
         <v>2556</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="49">
+        <v>44444</v>
+      </c>
+      <c r="G18" s="27">
+        <v>2556</v>
+      </c>
       <c r="H18" s="16">
         <f t="shared" si="0"/>
-        <v>2556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -30227,11 +30281,15 @@
       <c r="E19" s="20">
         <v>2595</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="49">
+        <v>44444</v>
+      </c>
+      <c r="G19" s="27">
+        <v>2595</v>
+      </c>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
-        <v>2595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -30249,11 +30307,15 @@
       <c r="E20" s="20">
         <v>4220</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="49">
+        <v>44449</v>
+      </c>
+      <c r="G20" s="27">
+        <v>4220</v>
+      </c>
       <c r="H20" s="16">
         <f t="shared" si="0"/>
-        <v>4220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -30271,11 +30333,15 @@
       <c r="E21" s="20">
         <v>15057</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="49">
+        <v>44444</v>
+      </c>
+      <c r="G21" s="27">
+        <v>15057</v>
+      </c>
       <c r="H21" s="16">
         <f t="shared" si="0"/>
-        <v>15057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -30293,475 +30359,745 @@
       <c r="E22" s="20">
         <v>220</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="49">
+        <v>44446</v>
+      </c>
+      <c r="G22" s="27">
+        <v>220</v>
+      </c>
       <c r="H22" s="16">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="11">
+        <v>44444</v>
+      </c>
       <c r="B23" s="12">
         <f t="shared" si="1"/>
         <v>2461</v>
       </c>
       <c r="C23" s="21"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="27"/>
+      <c r="D23" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1273</v>
+      </c>
+      <c r="F23" s="49">
+        <v>44444</v>
+      </c>
+      <c r="G23" s="27">
+        <v>1273</v>
+      </c>
       <c r="H23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="11">
+        <v>44444</v>
+      </c>
       <c r="B24" s="12">
         <f t="shared" si="1"/>
         <v>2462</v>
       </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="27"/>
+      <c r="D24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="20">
+        <v>2220</v>
+      </c>
+      <c r="F24" s="49">
+        <v>44445</v>
+      </c>
+      <c r="G24" s="27">
+        <v>2220</v>
+      </c>
       <c r="H24" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="11">
+        <v>44444</v>
+      </c>
       <c r="B25" s="12">
         <f t="shared" si="1"/>
         <v>2463</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="27"/>
+      <c r="D25" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="20">
+        <v>883</v>
+      </c>
+      <c r="F25" s="49">
+        <v>44445</v>
+      </c>
+      <c r="G25" s="27">
+        <v>883</v>
+      </c>
       <c r="H25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="11">
+        <v>44444</v>
+      </c>
       <c r="B26" s="12">
         <f t="shared" si="1"/>
         <v>2464</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="27"/>
+      <c r="D26" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="20">
+        <v>34679</v>
+      </c>
+      <c r="F26" s="49">
+        <v>44447</v>
+      </c>
+      <c r="G26" s="27">
+        <v>34679</v>
+      </c>
       <c r="H26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="11">
+        <v>44445</v>
+      </c>
       <c r="B27" s="12">
         <f t="shared" si="1"/>
         <v>2465</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="27"/>
+      <c r="D27" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="20">
+        <v>416</v>
+      </c>
+      <c r="F27" s="49">
+        <v>44446</v>
+      </c>
+      <c r="G27" s="27">
+        <v>416</v>
+      </c>
       <c r="H27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="11">
+        <v>44445</v>
+      </c>
       <c r="B28" s="12">
         <f t="shared" si="1"/>
         <v>2466</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="27"/>
+      <c r="D28" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="20">
+        <v>848</v>
+      </c>
+      <c r="F28" s="49">
+        <v>44446</v>
+      </c>
+      <c r="G28" s="27">
+        <v>848</v>
+      </c>
       <c r="H28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="11">
+        <v>44445</v>
+      </c>
       <c r="B29" s="12">
         <f t="shared" si="1"/>
         <v>2467</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="27"/>
+      <c r="D29" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="20">
+        <v>8490</v>
+      </c>
+      <c r="F29" s="49">
+        <v>44446</v>
+      </c>
+      <c r="G29" s="27">
+        <v>8490</v>
+      </c>
       <c r="H29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="11">
+        <v>44446</v>
+      </c>
       <c r="B30" s="12">
         <f t="shared" si="1"/>
         <v>2468</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="27"/>
+      <c r="D30" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="20">
+        <v>10318</v>
+      </c>
+      <c r="F30" s="49">
+        <v>44447</v>
+      </c>
+      <c r="G30" s="27">
+        <v>10318</v>
+      </c>
       <c r="H30" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="11">
+        <v>44446</v>
+      </c>
       <c r="B31" s="12">
         <f t="shared" si="1"/>
         <v>2469</v>
       </c>
       <c r="C31" s="21"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="27"/>
+      <c r="D31" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20">
+        <v>512</v>
+      </c>
+      <c r="F31" s="49">
+        <v>44447</v>
+      </c>
+      <c r="G31" s="27">
+        <v>512</v>
+      </c>
       <c r="H31" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="11">
+        <v>44446</v>
+      </c>
       <c r="B32" s="12">
         <f t="shared" si="1"/>
         <v>2470</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="27"/>
+      <c r="D32" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="20">
+        <v>5352</v>
+      </c>
+      <c r="F32" s="49">
+        <v>44450</v>
+      </c>
+      <c r="G32" s="27">
+        <v>5352</v>
+      </c>
       <c r="H32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="11">
+        <v>44446</v>
+      </c>
       <c r="B33" s="12">
         <f t="shared" si="1"/>
         <v>2471</v>
       </c>
       <c r="C33" s="21"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="27"/>
+      <c r="D33" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1099</v>
+      </c>
+      <c r="F33" s="49">
+        <v>44448</v>
+      </c>
+      <c r="G33" s="27">
+        <v>1099</v>
+      </c>
       <c r="H33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="11">
+        <v>44447</v>
+      </c>
       <c r="B34" s="12">
         <f t="shared" si="1"/>
         <v>2472</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="27"/>
+      <c r="D34" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="20">
+        <v>349</v>
+      </c>
+      <c r="F34" s="49">
+        <v>44450</v>
+      </c>
+      <c r="G34" s="27">
+        <v>349</v>
+      </c>
       <c r="H34" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11">
+        <v>44447</v>
+      </c>
       <c r="B35" s="12">
         <f t="shared" si="1"/>
         <v>2473</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="27"/>
+      <c r="D35" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="20">
+        <v>2034</v>
+      </c>
+      <c r="F35" s="49">
+        <v>44449</v>
+      </c>
+      <c r="G35" s="27">
+        <v>2034</v>
+      </c>
       <c r="H35" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="11">
+        <v>44447</v>
+      </c>
       <c r="B36" s="12">
         <f t="shared" si="1"/>
         <v>2474</v>
       </c>
       <c r="C36" s="21"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="27"/>
+      <c r="D36" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="20">
+        <v>8608</v>
+      </c>
+      <c r="F36" s="49">
+        <v>44448</v>
+      </c>
+      <c r="G36" s="27">
+        <v>8608</v>
+      </c>
       <c r="H36" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="11">
+        <v>44447</v>
+      </c>
       <c r="B37" s="12">
         <f t="shared" si="1"/>
         <v>2475</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="27"/>
+      <c r="D37" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="20">
+        <v>36707</v>
+      </c>
+      <c r="F37" s="49">
+        <v>44450</v>
+      </c>
+      <c r="G37" s="27">
+        <v>36707</v>
+      </c>
       <c r="H37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="11">
+        <v>44448</v>
+      </c>
       <c r="B38" s="12">
         <f t="shared" si="1"/>
         <v>2476</v>
       </c>
       <c r="C38" s="21"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="27"/>
+      <c r="D38" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="20">
+        <v>45</v>
+      </c>
+      <c r="F38" s="49">
+        <v>44450</v>
+      </c>
+      <c r="G38" s="27">
+        <v>45</v>
+      </c>
       <c r="H38" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="11">
+        <v>44448</v>
+      </c>
       <c r="B39" s="12">
         <f t="shared" si="1"/>
         <v>2477</v>
       </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="27"/>
+      <c r="D39" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1865</v>
+      </c>
+      <c r="F39" s="49">
+        <v>44450</v>
+      </c>
+      <c r="G39" s="27">
+        <v>1865</v>
+      </c>
       <c r="H39" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="11">
+        <v>44448</v>
+      </c>
       <c r="B40" s="12">
         <f t="shared" si="1"/>
         <v>2478</v>
       </c>
       <c r="C40" s="21"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="27"/>
+      <c r="D40" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="20">
+        <v>944</v>
+      </c>
+      <c r="F40" s="49">
+        <v>44449</v>
+      </c>
+      <c r="G40" s="27">
+        <v>944</v>
+      </c>
       <c r="H40" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="11">
+        <v>44448</v>
+      </c>
       <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>2479</v>
       </c>
       <c r="C41" s="21"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="20">
+        <v>2613</v>
+      </c>
       <c r="F41" s="49"/>
       <c r="G41" s="27"/>
       <c r="H41" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="11">
+        <v>44448</v>
+      </c>
       <c r="B42" s="12">
         <f t="shared" si="1"/>
         <v>2480</v>
       </c>
       <c r="C42" s="21"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="27"/>
+      <c r="D42" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="20">
+        <v>6612</v>
+      </c>
+      <c r="F42" s="49">
+        <v>44449</v>
+      </c>
+      <c r="G42" s="27">
+        <v>6612</v>
+      </c>
       <c r="H42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="11">
+        <v>44448</v>
+      </c>
       <c r="B43" s="12">
         <f t="shared" si="1"/>
         <v>2481</v>
       </c>
       <c r="C43" s="21"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="27"/>
+      <c r="D43" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="20">
+        <v>3004</v>
+      </c>
+      <c r="F43" s="49">
+        <v>44449</v>
+      </c>
+      <c r="G43" s="27">
+        <v>3004</v>
+      </c>
       <c r="H43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="11">
+        <v>44448</v>
+      </c>
       <c r="B44" s="12">
         <f t="shared" si="1"/>
         <v>2482</v>
       </c>
       <c r="C44" s="21"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="27"/>
+      <c r="D44" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="20">
+        <v>550</v>
+      </c>
+      <c r="F44" s="49">
+        <v>44449</v>
+      </c>
+      <c r="G44" s="27">
+        <v>550</v>
+      </c>
       <c r="H44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="11">
+        <v>44449</v>
+      </c>
       <c r="B45" s="12">
         <f t="shared" si="1"/>
         <v>2483</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="20"/>
+      <c r="D45" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="20">
+        <v>4487</v>
+      </c>
       <c r="F45" s="49"/>
       <c r="G45" s="27"/>
       <c r="H45" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="11">
+        <v>44449</v>
+      </c>
       <c r="B46" s="12">
         <f t="shared" si="1"/>
         <v>2484</v>
       </c>
       <c r="C46" s="21"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="20">
+        <v>35398</v>
+      </c>
       <c r="F46" s="49"/>
       <c r="G46" s="27"/>
       <c r="H46" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35398</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="11">
+        <v>44449</v>
+      </c>
       <c r="B47" s="12">
         <f t="shared" si="1"/>
         <v>2485</v>
       </c>
       <c r="C47" s="21"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="27"/>
+      <c r="D47" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="20">
+        <v>6928</v>
+      </c>
+      <c r="F47" s="49">
+        <v>44450</v>
+      </c>
+      <c r="G47" s="27">
+        <v>6928</v>
+      </c>
       <c r="H47" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="11">
+        <v>44449</v>
+      </c>
       <c r="B48" s="12">
         <f t="shared" si="1"/>
         <v>2486</v>
       </c>
       <c r="C48" s="21"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="27"/>
+      <c r="D48" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="20">
+        <v>415</v>
+      </c>
+      <c r="F48" s="49">
+        <v>44450</v>
+      </c>
+      <c r="G48" s="27">
+        <v>415</v>
+      </c>
       <c r="H48" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="11">
+        <v>44450</v>
+      </c>
       <c r="B49" s="12">
         <f t="shared" si="1"/>
         <v>2487</v>
       </c>
       <c r="C49" s="21"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="20"/>
+      <c r="D49" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="20">
+        <v>75</v>
+      </c>
       <c r="F49" s="49"/>
       <c r="G49" s="27"/>
       <c r="H49" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="A50" s="11">
+        <v>44450</v>
+      </c>
       <c r="B50" s="12">
         <f t="shared" si="1"/>
         <v>2488</v>
       </c>
       <c r="C50" s="21"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="20"/>
+      <c r="D50" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="20">
+        <v>2430</v>
+      </c>
       <c r="F50" s="49"/>
       <c r="G50" s="27"/>
       <c r="H50" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="A51" s="11">
+        <v>44450</v>
+      </c>
       <c r="B51" s="12">
         <f t="shared" si="1"/>
         <v>2489</v>
       </c>
       <c r="C51" s="21"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="20"/>
+      <c r="D51" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="20">
+        <v>15079</v>
+      </c>
       <c r="F51" s="49"/>
       <c r="G51" s="27"/>
       <c r="H51" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15079</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32506,16 +32842,16 @@
       <c r="D156" s="2"/>
       <c r="E156" s="37">
         <f>SUM(E4:E155)</f>
-        <v>127584</v>
+        <v>321817</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>63873</v>
+        <v>261735</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>63711</v>
+        <v>60082</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -32559,7 +32895,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="221">
         <f>E156-G156</f>
-        <v>63711</v>
+        <v>60082</v>
       </c>
       <c r="F160" s="222"/>
       <c r="G160" s="223"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 1 " sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="83">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>FOGONCITO</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
   </si>
 </sst>
 </file>
@@ -5772,8 +5775,8 @@
   </sheetPr>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7224,7 +7227,9 @@
       <c r="D39" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="180"/>
+      <c r="E39" s="180">
+        <v>628</v>
+      </c>
       <c r="F39" s="199"/>
       <c r="H39" s="30">
         <v>36</v>
@@ -7258,7 +7263,9 @@
       <c r="D40" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="202"/>
+      <c r="E40" s="202">
+        <v>629</v>
+      </c>
       <c r="F40" s="199"/>
       <c r="H40" s="30">
         <v>37</v>
@@ -29807,9 +29814,9 @@
   </sheetPr>
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30953,11 +30960,15 @@
       <c r="E45" s="20">
         <v>4487</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="27"/>
+      <c r="F45" s="49">
+        <v>44453</v>
+      </c>
+      <c r="G45" s="27">
+        <v>4487</v>
+      </c>
       <c r="H45" s="16">
         <f t="shared" si="0"/>
-        <v>4487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30975,11 +30986,15 @@
       <c r="E46" s="20">
         <v>35398</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="27"/>
+      <c r="F46" s="49">
+        <v>44451</v>
+      </c>
+      <c r="G46" s="27">
+        <v>35398</v>
+      </c>
       <c r="H46" s="16">
         <f t="shared" si="0"/>
-        <v>35398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31049,11 +31064,15 @@
       <c r="E49" s="20">
         <v>75</v>
       </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="27"/>
+      <c r="F49" s="49">
+        <v>44453</v>
+      </c>
+      <c r="G49" s="27">
+        <v>75</v>
+      </c>
       <c r="H49" s="16">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31071,11 +31090,15 @@
       <c r="E50" s="20">
         <v>2430</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="27"/>
+      <c r="F50" s="49">
+        <v>44451</v>
+      </c>
+      <c r="G50" s="27">
+        <v>2430</v>
+      </c>
       <c r="H50" s="16">
         <f t="shared" si="0"/>
-        <v>2430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31093,155 +31116,241 @@
       <c r="E51" s="20">
         <v>15079</v>
       </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="27"/>
+      <c r="F51" s="49">
+        <v>44451</v>
+      </c>
+      <c r="G51" s="27">
+        <v>15079</v>
+      </c>
       <c r="H51" s="16">
         <f t="shared" si="0"/>
-        <v>15079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="11">
+        <v>44451</v>
+      </c>
       <c r="B52" s="12">
         <f t="shared" si="1"/>
         <v>2490</v>
       </c>
       <c r="C52" s="21"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="27"/>
+      <c r="D52" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="20">
+        <v>4159</v>
+      </c>
+      <c r="F52" s="49">
+        <v>44453</v>
+      </c>
+      <c r="G52" s="27">
+        <v>4159</v>
+      </c>
       <c r="H52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="11">
+        <v>44451</v>
+      </c>
       <c r="B53" s="12">
         <f t="shared" si="1"/>
         <v>2491</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="27"/>
+      <c r="D53" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="20">
+        <v>35469</v>
+      </c>
+      <c r="F53" s="49">
+        <v>44453</v>
+      </c>
+      <c r="G53" s="27">
+        <v>35469</v>
+      </c>
       <c r="H53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+      <c r="A54" s="11">
+        <v>44451</v>
+      </c>
       <c r="B54" s="12">
         <f t="shared" si="1"/>
         <v>2492</v>
       </c>
       <c r="C54" s="21"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="20"/>
+      <c r="D54" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="20">
+        <v>4445</v>
+      </c>
       <c r="F54" s="49"/>
       <c r="G54" s="27"/>
       <c r="H54" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="11">
+        <v>44451</v>
+      </c>
       <c r="B55" s="12">
         <f t="shared" si="1"/>
         <v>2493</v>
       </c>
       <c r="C55" s="21"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="27"/>
+      <c r="D55" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="20">
+        <v>14808</v>
+      </c>
+      <c r="F55" s="49">
+        <v>44452</v>
+      </c>
+      <c r="G55" s="27">
+        <v>14808</v>
+      </c>
       <c r="H55" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="11">
+        <v>44451</v>
+      </c>
       <c r="B56" s="12">
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
       <c r="C56" s="21"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="27"/>
+      <c r="D56" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="20">
+        <v>5246</v>
+      </c>
+      <c r="F56" s="49">
+        <v>44452</v>
+      </c>
+      <c r="G56" s="27">
+        <v>5246</v>
+      </c>
       <c r="H56" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="11">
+        <v>44451</v>
+      </c>
       <c r="B57" s="12">
         <f t="shared" si="1"/>
         <v>2495</v>
       </c>
       <c r="C57" s="21"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="27"/>
+      <c r="D57" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="20">
+        <v>7749</v>
+      </c>
+      <c r="F57" s="49">
+        <v>44452</v>
+      </c>
+      <c r="G57" s="27">
+        <v>7749</v>
+      </c>
       <c r="H57" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="11">
+        <v>44452</v>
+      </c>
       <c r="B58" s="12">
         <f t="shared" si="1"/>
         <v>2496</v>
       </c>
       <c r="C58" s="21"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="27"/>
+      <c r="D58" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="20">
+        <v>1459</v>
+      </c>
+      <c r="F58" s="49">
+        <v>44453</v>
+      </c>
+      <c r="G58" s="27">
+        <v>1459</v>
+      </c>
       <c r="H58" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="11">
+        <v>44452</v>
+      </c>
       <c r="B59" s="12">
         <f t="shared" si="1"/>
         <v>2497</v>
       </c>
       <c r="C59" s="21"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="27"/>
+      <c r="D59" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="20">
+        <v>10308</v>
+      </c>
+      <c r="F59" s="49">
+        <v>44453</v>
+      </c>
+      <c r="G59" s="27">
+        <v>10308</v>
+      </c>
       <c r="H59" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="11">
+        <v>44453</v>
+      </c>
       <c r="B60" s="12">
         <f t="shared" si="1"/>
         <v>2498</v>
       </c>
       <c r="C60" s="21"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="20"/>
+      <c r="D60" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="20">
+        <v>75</v>
+      </c>
       <c r="F60" s="49"/>
       <c r="G60" s="27"/>
       <c r="H60" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L60" s="62"/>
       <c r="M60" s="62"/>
@@ -31251,19 +31360,25 @@
       <c r="Q60" s="62"/>
     </row>
     <row r="61" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="11">
+        <v>44453</v>
+      </c>
       <c r="B61" s="12">
         <f t="shared" si="1"/>
         <v>2499</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="20"/>
+      <c r="D61" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="20">
+        <v>7615</v>
+      </c>
       <c r="F61" s="49"/>
       <c r="G61" s="27"/>
       <c r="H61" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7615</v>
       </c>
       <c r="L61" s="62"/>
       <c r="M61" s="62"/>
@@ -31273,19 +31388,25 @@
       <c r="Q61" s="62"/>
     </row>
     <row r="62" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+      <c r="A62" s="11">
+        <v>44453</v>
+      </c>
       <c r="B62" s="12">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="C62" s="21"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="20"/>
+      <c r="D62" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="20">
+        <v>2921</v>
+      </c>
       <c r="F62" s="49"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2921</v>
       </c>
       <c r="L62" s="62"/>
       <c r="M62" s="62"/>
@@ -32842,16 +32963,16 @@
       <c r="D156" s="2"/>
       <c r="E156" s="37">
         <f>SUM(E4:E155)</f>
-        <v>321817</v>
+        <v>416071</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>261735</v>
+        <v>398402</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>60082</v>
+        <v>17669</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -32895,7 +33016,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="221">
         <f>E156-G156</f>
-        <v>60082</v>
+        <v>17669</v>
       </c>
       <c r="F160" s="222"/>
       <c r="G160" s="223"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 1 " sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="83">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -5776,7 +5776,7 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7230,7 +7230,9 @@
       <c r="E39" s="180">
         <v>628</v>
       </c>
-      <c r="F39" s="199"/>
+      <c r="F39" s="199">
+        <v>44469</v>
+      </c>
       <c r="H39" s="30">
         <v>36</v>
       </c>
@@ -7266,7 +7268,9 @@
       <c r="E40" s="202">
         <v>629</v>
       </c>
-      <c r="F40" s="199"/>
+      <c r="F40" s="199">
+        <v>44469</v>
+      </c>
       <c r="H40" s="30">
         <v>37</v>
       </c>
@@ -29815,8 +29819,8 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31346,11 +31350,15 @@
       <c r="E60" s="20">
         <v>75</v>
       </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="27"/>
+      <c r="F60" s="49">
+        <v>44454</v>
+      </c>
+      <c r="G60" s="27">
+        <v>75</v>
+      </c>
       <c r="H60" s="16">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L60" s="62"/>
       <c r="M60" s="62"/>
@@ -31374,11 +31382,15 @@
       <c r="E61" s="20">
         <v>7615</v>
       </c>
-      <c r="F61" s="49"/>
-      <c r="G61" s="27"/>
+      <c r="F61" s="49">
+        <v>44454</v>
+      </c>
+      <c r="G61" s="27">
+        <v>7615</v>
+      </c>
       <c r="H61" s="16">
         <f t="shared" si="0"/>
-        <v>7615</v>
+        <v>0</v>
       </c>
       <c r="L61" s="62"/>
       <c r="M61" s="62"/>
@@ -31402,11 +31414,15 @@
       <c r="E62" s="20">
         <v>2921</v>
       </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="27"/>
+      <c r="F62" s="49">
+        <v>44454</v>
+      </c>
+      <c r="G62" s="27">
+        <v>2921</v>
+      </c>
       <c r="H62" s="28">
         <f t="shared" si="0"/>
-        <v>2921</v>
+        <v>0</v>
       </c>
       <c r="L62" s="62"/>
       <c r="M62" s="62"/>
@@ -31416,19 +31432,25 @@
       <c r="Q62" s="62"/>
     </row>
     <row r="63" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+      <c r="A63" s="11">
+        <v>44454</v>
+      </c>
       <c r="B63" s="12">
         <f t="shared" si="1"/>
         <v>2501</v>
       </c>
       <c r="C63" s="21"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="20"/>
+      <c r="D63" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="20">
+        <v>36071</v>
+      </c>
       <c r="F63" s="49"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36071</v>
       </c>
       <c r="L63" s="62"/>
       <c r="M63" s="62"/>
@@ -31438,19 +31460,25 @@
       <c r="Q63" s="62"/>
     </row>
     <row r="64" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="11">
+        <v>44454</v>
+      </c>
       <c r="B64" s="12">
         <f t="shared" si="1"/>
         <v>2502</v>
       </c>
       <c r="C64" s="21"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="20"/>
+      <c r="D64" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="20">
+        <v>3966</v>
+      </c>
       <c r="F64" s="49"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3966</v>
       </c>
       <c r="L64" s="147"/>
       <c r="M64" s="148"/>
@@ -31460,19 +31488,25 @@
       <c r="Q64" s="150"/>
     </row>
     <row r="65" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="11">
+        <v>44454</v>
+      </c>
       <c r="B65" s="12">
         <f t="shared" si="1"/>
         <v>2503</v>
       </c>
       <c r="C65" s="21"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="20"/>
+      <c r="D65" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="20">
+        <v>3296</v>
+      </c>
       <c r="F65" s="49"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="L65" s="147"/>
       <c r="M65" s="148"/>
@@ -31482,19 +31516,25 @@
       <c r="Q65" s="150"/>
     </row>
     <row r="66" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="11">
+        <v>44454</v>
+      </c>
       <c r="B66" s="12">
         <f t="shared" si="1"/>
         <v>2504</v>
       </c>
       <c r="C66" s="21"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="20"/>
+      <c r="D66" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="20">
+        <v>1905</v>
+      </c>
       <c r="F66" s="49"/>
       <c r="G66" s="27"/>
       <c r="H66" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1905</v>
       </c>
       <c r="L66" s="147"/>
       <c r="M66" s="148"/>
@@ -31504,19 +31544,25 @@
       <c r="Q66" s="150"/>
     </row>
     <row r="67" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="11">
+        <v>44454</v>
+      </c>
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>2505</v>
       </c>
       <c r="C67" s="21"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="20"/>
+      <c r="D67" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="20">
+        <v>6259</v>
+      </c>
       <c r="F67" s="49"/>
       <c r="G67" s="27"/>
       <c r="H67" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6259</v>
       </c>
       <c r="L67" s="147"/>
       <c r="M67" s="148"/>
@@ -31526,19 +31572,25 @@
       <c r="Q67" s="150"/>
     </row>
     <row r="68" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
+      <c r="A68" s="18">
+        <v>44454</v>
+      </c>
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>2506</v>
       </c>
       <c r="C68" s="21"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="20"/>
+      <c r="D68" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="20">
+        <v>8779</v>
+      </c>
       <c r="F68" s="49"/>
       <c r="G68" s="27"/>
       <c r="H68" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8779</v>
       </c>
       <c r="L68" s="147"/>
       <c r="M68" s="148"/>
@@ -31548,19 +31600,25 @@
       <c r="Q68" s="150"/>
     </row>
     <row r="69" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
+      <c r="A69" s="18">
+        <v>44454</v>
+      </c>
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>2507</v>
       </c>
       <c r="C69" s="21"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="20"/>
+      <c r="D69" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="20">
+        <v>48</v>
+      </c>
       <c r="F69" s="49"/>
       <c r="G69" s="27"/>
       <c r="H69" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L69" s="147"/>
       <c r="M69" s="148"/>
@@ -32963,16 +33021,16 @@
       <c r="D156" s="2"/>
       <c r="E156" s="37">
         <f>SUM(E4:E155)</f>
-        <v>416071</v>
+        <v>476395</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>398402</v>
+        <v>409013</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>17669</v>
+        <v>67382</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -33016,7 +33074,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="221">
         <f>E156-G156</f>
-        <v>17669</v>
+        <v>67382</v>
       </c>
       <c r="F160" s="222"/>
       <c r="G160" s="223"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="87">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -558,6 +558,18 @@
   <si>
     <t>ALFONSO</t>
   </si>
+  <si>
+    <t>AZUMIATLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CANCELADA</t>
+  </si>
 </sst>
 </file>
 
@@ -569,7 +581,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +779,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1286,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1870,6 +1890,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -29819,8 +29852,8 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31198,11 +31231,15 @@
       <c r="E54" s="20">
         <v>4445</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="27"/>
+      <c r="F54" s="49">
+        <v>44455</v>
+      </c>
+      <c r="G54" s="27">
+        <v>4445</v>
+      </c>
       <c r="H54" s="16">
         <f t="shared" si="0"/>
-        <v>4445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31446,11 +31483,15 @@
       <c r="E63" s="20">
         <v>36071</v>
       </c>
-      <c r="F63" s="49"/>
-      <c r="G63" s="27"/>
+      <c r="F63" s="49">
+        <v>44455</v>
+      </c>
+      <c r="G63" s="27">
+        <v>36071</v>
+      </c>
       <c r="H63" s="28">
         <f t="shared" si="0"/>
-        <v>36071</v>
+        <v>0</v>
       </c>
       <c r="L63" s="62"/>
       <c r="M63" s="62"/>
@@ -31474,11 +31515,15 @@
       <c r="E64" s="20">
         <v>3966</v>
       </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="27"/>
+      <c r="F64" s="49">
+        <v>44455</v>
+      </c>
+      <c r="G64" s="27">
+        <v>3966</v>
+      </c>
       <c r="H64" s="28">
         <f t="shared" si="0"/>
-        <v>3966</v>
+        <v>0</v>
       </c>
       <c r="L64" s="147"/>
       <c r="M64" s="148"/>
@@ -31502,11 +31547,15 @@
       <c r="E65" s="20">
         <v>3296</v>
       </c>
-      <c r="F65" s="49"/>
-      <c r="G65" s="27"/>
+      <c r="F65" s="49">
+        <v>44455</v>
+      </c>
+      <c r="G65" s="27">
+        <v>3296</v>
+      </c>
       <c r="H65" s="28">
         <f t="shared" si="0"/>
-        <v>3296</v>
+        <v>0</v>
       </c>
       <c r="L65" s="147"/>
       <c r="M65" s="148"/>
@@ -31530,11 +31579,15 @@
       <c r="E66" s="20">
         <v>1905</v>
       </c>
-      <c r="F66" s="49"/>
-      <c r="G66" s="27"/>
+      <c r="F66" s="49">
+        <v>44455</v>
+      </c>
+      <c r="G66" s="27">
+        <v>1905</v>
+      </c>
       <c r="H66" s="28">
         <f t="shared" si="0"/>
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="L66" s="147"/>
       <c r="M66" s="148"/>
@@ -31558,11 +31611,15 @@
       <c r="E67" s="20">
         <v>6259</v>
       </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="27"/>
+      <c r="F67" s="49">
+        <v>44457</v>
+      </c>
+      <c r="G67" s="27">
+        <v>6259</v>
+      </c>
       <c r="H67" s="28">
         <f t="shared" si="0"/>
-        <v>6259</v>
+        <v>0</v>
       </c>
       <c r="L67" s="147"/>
       <c r="M67" s="148"/>
@@ -31586,11 +31643,15 @@
       <c r="E68" s="20">
         <v>8779</v>
       </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="27"/>
+      <c r="F68" s="49">
+        <v>44455</v>
+      </c>
+      <c r="G68" s="27">
+        <v>8779</v>
+      </c>
       <c r="H68" s="28">
         <f t="shared" si="0"/>
-        <v>8779</v>
+        <v>0</v>
       </c>
       <c r="L68" s="147"/>
       <c r="M68" s="148"/>
@@ -31614,11 +31675,15 @@
       <c r="E69" s="20">
         <v>48</v>
       </c>
-      <c r="F69" s="49"/>
-      <c r="G69" s="27"/>
+      <c r="F69" s="49">
+        <v>44457</v>
+      </c>
+      <c r="G69" s="27">
+        <v>48</v>
+      </c>
       <c r="H69" s="28">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L69" s="147"/>
       <c r="M69" s="148"/>
@@ -31628,16 +31693,26 @@
       <c r="Q69" s="150"/>
     </row>
     <row r="70" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
+      <c r="A70" s="18">
+        <v>44455</v>
+      </c>
       <c r="B70" s="12">
         <f t="shared" ref="B70:B133" si="2">B69+1</f>
         <v>2508</v>
       </c>
       <c r="C70" s="21"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="27"/>
+      <c r="D70" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="20">
+        <v>2474</v>
+      </c>
+      <c r="F70" s="49">
+        <v>44456</v>
+      </c>
+      <c r="G70" s="27">
+        <v>2474</v>
+      </c>
       <c r="H70" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -31650,19 +31725,25 @@
       <c r="Q70" s="62"/>
     </row>
     <row r="71" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="18">
+        <v>44455</v>
+      </c>
       <c r="B71" s="12">
         <f t="shared" si="2"/>
         <v>2509</v>
       </c>
       <c r="C71" s="21"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="20"/>
+      <c r="D71" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="20">
+        <v>45</v>
+      </c>
       <c r="F71" s="49"/>
       <c r="G71" s="27"/>
       <c r="H71" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L71" s="62"/>
       <c r="M71" s="62"/>
@@ -31672,16 +31753,26 @@
       <c r="Q71" s="62"/>
     </row>
     <row r="72" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="A72" s="18">
+        <v>44455</v>
+      </c>
       <c r="B72" s="12">
         <f t="shared" si="2"/>
         <v>2510</v>
       </c>
       <c r="C72" s="21"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="27"/>
+      <c r="D72" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="20">
+        <v>32832</v>
+      </c>
+      <c r="F72" s="49">
+        <v>44457</v>
+      </c>
+      <c r="G72" s="27">
+        <v>32832</v>
+      </c>
       <c r="H72" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -31694,126 +31785,184 @@
       <c r="Q72" s="62"/>
     </row>
     <row r="73" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
+      <c r="A73" s="18">
+        <v>44456</v>
+      </c>
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>2511</v>
       </c>
       <c r="C73" s="21"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="20"/>
+      <c r="D73" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="20">
+        <v>4498</v>
+      </c>
       <c r="F73" s="49"/>
       <c r="G73" s="27"/>
       <c r="H73" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
+      <c r="A74" s="18">
+        <v>44456</v>
+      </c>
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>2512</v>
       </c>
       <c r="C74" s="21"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="20"/>
+      <c r="D74" s="231" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="20">
+        <v>3775</v>
+      </c>
       <c r="F74" s="49"/>
       <c r="G74" s="27"/>
       <c r="H74" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
+      <c r="A75" s="18">
+        <v>44456</v>
+      </c>
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>2513</v>
       </c>
       <c r="C75" s="170"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="20"/>
+      <c r="D75" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="20">
+        <v>31850</v>
+      </c>
       <c r="F75" s="49"/>
       <c r="G75" s="27"/>
       <c r="H75" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31850</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
+      <c r="A76" s="18">
+        <v>44456</v>
+      </c>
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>2514</v>
       </c>
       <c r="C76" s="170"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="27"/>
+      <c r="D76" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="20">
+        <v>1905</v>
+      </c>
+      <c r="F76" s="49">
+        <v>44457</v>
+      </c>
+      <c r="G76" s="27">
+        <v>1905</v>
+      </c>
       <c r="H76" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
+      <c r="A77" s="18">
+        <v>44456</v>
+      </c>
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>2515</v>
       </c>
       <c r="C77" s="170"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="20"/>
+      <c r="D77" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="20">
+        <v>1905</v>
+      </c>
       <c r="F77" s="49"/>
       <c r="G77" s="27"/>
       <c r="H77" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
+      <c r="A78" s="18">
+        <v>44456</v>
+      </c>
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>2516</v>
       </c>
       <c r="C78" s="170"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="27"/>
+      <c r="D78" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="20">
+        <v>87</v>
+      </c>
+      <c r="F78" s="49">
+        <v>44457</v>
+      </c>
+      <c r="G78" s="27">
+        <v>87</v>
+      </c>
       <c r="H78" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
+      <c r="A79" s="18">
+        <v>44456</v>
+      </c>
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>2517</v>
       </c>
       <c r="C79" s="170"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="27"/>
+      <c r="D79" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="20">
+        <v>491</v>
+      </c>
+      <c r="F79" s="49">
+        <v>44457</v>
+      </c>
+      <c r="G79" s="27">
+        <v>491</v>
+      </c>
       <c r="H79" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="12">
+      <c r="A80" s="232" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="233">
         <f t="shared" si="2"/>
         <v>2518</v>
       </c>
-      <c r="C80" s="170"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="20"/>
+      <c r="C80" s="234"/>
+      <c r="D80" s="235" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="236"/>
       <c r="F80" s="49"/>
       <c r="G80" s="27"/>
       <c r="H80" s="28">
@@ -31822,46 +31971,64 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
+      <c r="A81" s="18">
+        <v>44457</v>
+      </c>
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>2519</v>
       </c>
       <c r="C81" s="170"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="20"/>
+      <c r="D81" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="20">
+        <v>2024</v>
+      </c>
       <c r="F81" s="49"/>
       <c r="G81" s="27"/>
       <c r="H81" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
+      <c r="A82" s="18">
+        <v>44457</v>
+      </c>
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>2520</v>
       </c>
       <c r="C82" s="170"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="20"/>
+      <c r="D82" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="20">
+        <v>12712</v>
+      </c>
       <c r="F82" s="49"/>
       <c r="G82" s="27"/>
       <c r="H82" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12712</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
+      <c r="A83" s="18">
+        <v>44457</v>
+      </c>
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>2521</v>
       </c>
       <c r="C83" s="170"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="20"/>
+      <c r="D83" s="237" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="20">
+        <v>0</v>
+      </c>
       <c r="F83" s="49"/>
       <c r="G83" s="27"/>
       <c r="H83" s="28">
@@ -31870,35 +32037,47 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
+      <c r="A84" s="18">
+        <v>44457</v>
+      </c>
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>2522</v>
       </c>
       <c r="C84" s="170"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="20"/>
+      <c r="D84" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="20">
+        <v>5553</v>
+      </c>
       <c r="F84" s="49"/>
       <c r="G84" s="27"/>
       <c r="H84" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
+      <c r="A85" s="18">
+        <v>44457</v>
+      </c>
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>2523</v>
       </c>
       <c r="C85" s="170"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="20"/>
+      <c r="D85" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="20">
+        <v>4843</v>
+      </c>
       <c r="F85" s="49"/>
       <c r="G85" s="27"/>
       <c r="H85" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -33021,16 +33200,16 @@
       <c r="D156" s="2"/>
       <c r="E156" s="37">
         <f>SUM(E4:E155)</f>
-        <v>476395</v>
+        <v>581389</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>409013</v>
+        <v>511571</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>67382</v>
+        <v>69818</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -33074,7 +33253,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="221">
         <f>E156-G156</f>
-        <v>67382</v>
+        <v>69818</v>
       </c>
       <c r="F160" s="222"/>
       <c r="G160" s="223"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 1 " sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="88">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>CANCELADA</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1848,6 +1851,19 @@
     <xf numFmtId="165" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1890,19 +1906,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3319,25 +3322,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -5637,12 +5640,12 @@
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="221">
+      <c r="E89" s="228">
         <f>E85-G85</f>
         <v>0</v>
       </c>
-      <c r="F89" s="222"/>
-      <c r="G89" s="223"/>
+      <c r="F89" s="229"/>
+      <c r="G89" s="230"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5658,11 +5661,11 @@
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="224" t="s">
+      <c r="E91" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="224"/>
-      <c r="G91" s="224"/>
+      <c r="F91" s="231"/>
+      <c r="G91" s="231"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5829,19 +5832,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="225" t="s">
+      <c r="C1" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
       <c r="F1" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="225" t="s">
+      <c r="J1" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
@@ -8163,10 +8166,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="234" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="228"/>
+      <c r="C1" s="235"/>
       <c r="D1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8186,10 +8189,10 @@
       <c r="F2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="229" t="s">
+      <c r="G2" s="236" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="230"/>
+      <c r="H2" s="237"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65">
@@ -8455,25 +8458,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -10846,12 +10849,12 @@
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="221">
+      <c r="E95" s="228">
         <f>E91-G91</f>
         <v>0</v>
       </c>
-      <c r="F95" s="222"/>
-      <c r="G95" s="223"/>
+      <c r="F95" s="229"/>
+      <c r="G95" s="230"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -10867,11 +10870,11 @@
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="224" t="s">
+      <c r="E97" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="224"/>
-      <c r="G97" s="224"/>
+      <c r="F97" s="231"/>
+      <c r="G97" s="231"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -11014,25 +11017,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -14189,12 +14192,12 @@
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="221">
+      <c r="E124" s="228">
         <f>E120-G120</f>
         <v>0</v>
       </c>
-      <c r="F124" s="222"/>
-      <c r="G124" s="223"/>
+      <c r="F124" s="229"/>
+      <c r="G124" s="230"/>
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -14210,11 +14213,11 @@
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="224" t="s">
+      <c r="E126" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="224"/>
-      <c r="G126" s="224"/>
+      <c r="F126" s="231"/>
+      <c r="G126" s="231"/>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -14355,25 +14358,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -16818,12 +16821,12 @@
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="221">
+      <c r="E97" s="228">
         <f>E93-G93</f>
         <v>0</v>
       </c>
-      <c r="F97" s="222"/>
-      <c r="G97" s="223"/>
+      <c r="F97" s="229"/>
+      <c r="G97" s="230"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -16839,11 +16842,11 @@
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="224" t="s">
+      <c r="E99" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="224"/>
-      <c r="G99" s="224"/>
+      <c r="F99" s="231"/>
+      <c r="G99" s="231"/>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -16992,25 +16995,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -20144,12 +20147,12 @@
       <c r="B125" s="165"/>
       <c r="C125" s="36"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="221">
+      <c r="E125" s="228">
         <f>E121-G121</f>
         <v>0</v>
       </c>
-      <c r="F125" s="222"/>
-      <c r="G125" s="223"/>
+      <c r="F125" s="229"/>
+      <c r="G125" s="230"/>
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -20165,11 +20168,11 @@
       <c r="B127" s="165"/>
       <c r="C127" s="36"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="224" t="s">
+      <c r="E127" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="224"/>
-      <c r="G127" s="224"/>
+      <c r="F127" s="231"/>
+      <c r="G127" s="231"/>
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -20312,25 +20315,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -22424,12 +22427,12 @@
       <c r="B85" s="165"/>
       <c r="C85" s="36"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="221">
+      <c r="E85" s="228">
         <f>E81-G81</f>
         <v>0</v>
       </c>
-      <c r="F85" s="222"/>
-      <c r="G85" s="223"/>
+      <c r="F85" s="229"/>
+      <c r="G85" s="230"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -22445,11 +22448,11 @@
       <c r="B87" s="165"/>
       <c r="C87" s="36"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="224" t="s">
+      <c r="E87" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="224"/>
-      <c r="G87" s="224"/>
+      <c r="F87" s="231"/>
+      <c r="G87" s="231"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -22591,25 +22594,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -25442,12 +25445,12 @@
       <c r="B114" s="165"/>
       <c r="C114" s="36"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="221">
+      <c r="E114" s="228">
         <f>E110-G110</f>
         <v>0</v>
       </c>
-      <c r="F114" s="222"/>
-      <c r="G114" s="223"/>
+      <c r="F114" s="229"/>
+      <c r="G114" s="230"/>
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -25463,11 +25466,11 @@
       <c r="B116" s="165"/>
       <c r="C116" s="36"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="224" t="s">
+      <c r="E116" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F116" s="224"/>
-      <c r="G116" s="224"/>
+      <c r="F116" s="231"/>
+      <c r="G116" s="231"/>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -25593,7 +25596,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
+      <selection pane="bottomRight" activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25612,25 +25615,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="224" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -29467,11 +29470,15 @@
       <c r="E147" s="27">
         <v>1933</v>
       </c>
-      <c r="F147" s="216"/>
-      <c r="G147" s="92"/>
+      <c r="F147" s="216">
+        <v>44459</v>
+      </c>
+      <c r="G147" s="92">
+        <v>1933</v>
+      </c>
       <c r="H147" s="28">
         <f t="shared" si="0"/>
-        <v>1933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -29657,11 +29664,11 @@
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>764865</v>
+        <v>766798</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>1933</v>
+        <v>0</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -29703,12 +29710,12 @@
       <c r="B160" s="165"/>
       <c r="C160" s="36"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="221">
+      <c r="E160" s="228">
         <f>E156-G156</f>
-        <v>1933</v>
-      </c>
-      <c r="F160" s="222"/>
-      <c r="G160" s="223"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="229"/>
+      <c r="G160" s="230"/>
       <c r="I160" s="2"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -29724,11 +29731,11 @@
       <c r="B162" s="165"/>
       <c r="C162" s="36"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="224" t="s">
+      <c r="E162" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F162" s="224"/>
-      <c r="G162" s="224"/>
+      <c r="F162" s="231"/>
+      <c r="G162" s="231"/>
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -29852,8 +29859,8 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
+      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29872,25 +29879,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="224" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -31799,11 +31806,15 @@
       <c r="E73" s="20">
         <v>4498</v>
       </c>
-      <c r="F73" s="49"/>
-      <c r="G73" s="27"/>
+      <c r="F73" s="49">
+        <v>44461</v>
+      </c>
+      <c r="G73" s="27">
+        <v>4498</v>
+      </c>
       <c r="H73" s="28">
         <f t="shared" si="0"/>
-        <v>4498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31815,7 +31826,7 @@
         <v>2512</v>
       </c>
       <c r="C74" s="21"/>
-      <c r="D74" s="231" t="s">
+      <c r="D74" s="217" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="20">
@@ -31843,11 +31854,15 @@
       <c r="E75" s="20">
         <v>31850</v>
       </c>
-      <c r="F75" s="49"/>
-      <c r="G75" s="27"/>
+      <c r="F75" s="49">
+        <v>44459</v>
+      </c>
+      <c r="G75" s="27">
+        <v>31850</v>
+      </c>
       <c r="H75" s="28">
         <f t="shared" si="0"/>
-        <v>31850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -31951,18 +31966,18 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="232" t="s">
+      <c r="A80" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="233">
+      <c r="B80" s="219">
         <f t="shared" si="2"/>
         <v>2518</v>
       </c>
-      <c r="C80" s="234"/>
-      <c r="D80" s="235" t="s">
+      <c r="C80" s="220"/>
+      <c r="D80" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="E80" s="236"/>
+      <c r="E80" s="222"/>
       <c r="F80" s="49"/>
       <c r="G80" s="27"/>
       <c r="H80" s="28">
@@ -32023,7 +32038,7 @@
         <v>2521</v>
       </c>
       <c r="C83" s="170"/>
-      <c r="D83" s="237" t="s">
+      <c r="D83" s="223" t="s">
         <v>86</v>
       </c>
       <c r="E83" s="20">
@@ -32081,14 +32096,16 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="B86" s="12">
+      <c r="A86" s="218"/>
+      <c r="B86" s="219">
         <f t="shared" si="2"/>
         <v>2524</v>
       </c>
-      <c r="C86" s="170"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="20"/>
+      <c r="C86" s="220"/>
+      <c r="D86" s="221" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86" s="222"/>
       <c r="F86" s="49"/>
       <c r="G86" s="27"/>
       <c r="H86" s="28">
@@ -32097,179 +32114,269 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
+      <c r="A87" s="18">
+        <v>44459</v>
+      </c>
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>2525</v>
       </c>
       <c r="C87" s="170"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="20"/>
+      <c r="D87" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1769</v>
+      </c>
       <c r="F87" s="49"/>
       <c r="G87" s="27"/>
       <c r="H87" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
+      <c r="A88" s="18">
+        <v>44459</v>
+      </c>
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>2526</v>
       </c>
       <c r="C88" s="170"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="27"/>
+      <c r="D88" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="20">
+        <v>5054</v>
+      </c>
+      <c r="F88" s="49">
+        <v>44460</v>
+      </c>
+      <c r="G88" s="27">
+        <v>5054</v>
+      </c>
       <c r="H88" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
+      <c r="A89" s="18">
+        <v>44459</v>
+      </c>
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>2527</v>
       </c>
       <c r="C89" s="170"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="27"/>
+      <c r="D89" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="20">
+        <v>3344</v>
+      </c>
+      <c r="F89" s="49">
+        <v>44460</v>
+      </c>
+      <c r="G89" s="27">
+        <v>3344</v>
+      </c>
       <c r="H89" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="157"/>
+      <c r="A90" s="157">
+        <v>44459</v>
+      </c>
       <c r="B90" s="12">
         <f t="shared" si="2"/>
         <v>2528</v>
       </c>
       <c r="C90" s="171"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="214"/>
-      <c r="G90" s="27"/>
+      <c r="D90" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="27">
+        <v>885</v>
+      </c>
+      <c r="F90" s="214">
+        <v>44461</v>
+      </c>
+      <c r="G90" s="27">
+        <v>885</v>
+      </c>
       <c r="H90" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="157"/>
+      <c r="A91" s="157">
+        <v>44459</v>
+      </c>
       <c r="B91" s="12">
         <f t="shared" si="2"/>
         <v>2529</v>
       </c>
       <c r="C91" s="213"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="214"/>
-      <c r="G91" s="27"/>
+      <c r="D91" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="27">
+        <v>7338</v>
+      </c>
+      <c r="F91" s="214">
+        <v>44460</v>
+      </c>
+      <c r="G91" s="27">
+        <v>7338</v>
+      </c>
       <c r="H91" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="157"/>
+      <c r="A92" s="157">
+        <v>44460</v>
+      </c>
       <c r="B92" s="12">
         <f t="shared" si="2"/>
         <v>2530</v>
       </c>
       <c r="C92" s="213"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="27"/>
+      <c r="D92" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="27">
+        <v>34092</v>
+      </c>
       <c r="F92" s="214"/>
       <c r="G92" s="27"/>
       <c r="H92" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34092</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="157"/>
+      <c r="A93" s="157">
+        <v>44460</v>
+      </c>
       <c r="B93" s="12">
         <f t="shared" si="2"/>
         <v>2531</v>
       </c>
       <c r="C93" s="213"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="27"/>
+      <c r="D93" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="27">
+        <v>4642</v>
+      </c>
       <c r="F93" s="214"/>
       <c r="G93" s="27"/>
       <c r="H93" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="157"/>
+      <c r="A94" s="157">
+        <v>44460</v>
+      </c>
       <c r="B94" s="12">
         <f t="shared" si="2"/>
         <v>2532</v>
       </c>
       <c r="C94" s="213"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="214"/>
-      <c r="G94" s="27"/>
+      <c r="D94" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="27">
+        <v>7810</v>
+      </c>
+      <c r="F94" s="214">
+        <v>44461</v>
+      </c>
+      <c r="G94" s="27">
+        <v>7810</v>
+      </c>
       <c r="H94" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="157"/>
+      <c r="A95" s="157">
+        <v>44460</v>
+      </c>
       <c r="B95" s="12">
         <f t="shared" si="2"/>
         <v>2533</v>
       </c>
       <c r="C95" s="213"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="214"/>
-      <c r="G95" s="27"/>
+      <c r="D95" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" s="27">
+        <v>2716</v>
+      </c>
+      <c r="F95" s="214">
+        <v>44461</v>
+      </c>
+      <c r="G95" s="27">
+        <v>2716</v>
+      </c>
       <c r="H95" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="157"/>
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="157">
+        <v>44461</v>
+      </c>
       <c r="B96" s="12">
         <f t="shared" si="2"/>
         <v>2534</v>
       </c>
       <c r="C96" s="213"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="27"/>
+      <c r="D96" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="27">
+        <v>883</v>
+      </c>
       <c r="F96" s="214"/>
       <c r="G96" s="27"/>
       <c r="H96" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>883</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="157"/>
+      <c r="A97" s="157">
+        <v>44461</v>
+      </c>
       <c r="B97" s="12">
         <f t="shared" si="2"/>
         <v>2535</v>
       </c>
       <c r="C97" s="213"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="27"/>
+      <c r="D97" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="27">
+        <v>1158</v>
+      </c>
       <c r="F97" s="214"/>
       <c r="G97" s="27"/>
       <c r="H97" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -33200,16 +33307,16 @@
       <c r="D156" s="2"/>
       <c r="E156" s="37">
         <f>SUM(E4:E155)</f>
-        <v>581389</v>
+        <v>651080</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>511571</v>
+        <v>575066</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>69818</v>
+        <v>76014</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -33251,12 +33358,12 @@
       <c r="B160" s="165"/>
       <c r="C160" s="36"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="221">
+      <c r="E160" s="228">
         <f>E156-G156</f>
-        <v>69818</v>
-      </c>
-      <c r="F160" s="222"/>
-      <c r="G160" s="223"/>
+        <v>76014</v>
+      </c>
+      <c r="F160" s="229"/>
+      <c r="G160" s="230"/>
       <c r="I160" s="2"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -33272,11 +33379,11 @@
       <c r="B162" s="165"/>
       <c r="C162" s="36"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="224" t="s">
+      <c r="E162" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F162" s="224"/>
-      <c r="G162" s="224"/>
+      <c r="F162" s="231"/>
+      <c r="G162" s="231"/>
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 1 " sheetId="1" r:id="rId1"/>
@@ -5811,8 +5811,8 @@
   </sheetPr>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7153,7 +7153,9 @@
       <c r="D36" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="180"/>
+      <c r="E36" s="180">
+        <v>645</v>
+      </c>
       <c r="F36" s="199"/>
       <c r="H36" s="30">
         <v>33</v>
@@ -7339,7 +7341,9 @@
       <c r="D41" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="202"/>
+      <c r="E41" s="202">
+        <v>635</v>
+      </c>
       <c r="F41" s="199"/>
       <c r="H41" s="30">
         <v>38</v>
@@ -7373,7 +7377,9 @@
       <c r="D42" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="202"/>
+      <c r="E42" s="202">
+        <v>636</v>
+      </c>
       <c r="F42" s="199"/>
       <c r="H42" s="30">
         <v>39</v>
@@ -7398,12 +7404,18 @@
       <c r="A43" s="30">
         <v>40</v>
       </c>
-      <c r="B43" s="176"/>
-      <c r="C43" s="177"/>
+      <c r="B43" s="176">
+        <v>44471</v>
+      </c>
+      <c r="C43" s="177">
+        <v>17829.240000000002</v>
+      </c>
       <c r="D43" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="202"/>
+      <c r="E43" s="202">
+        <v>643</v>
+      </c>
       <c r="F43" s="199"/>
       <c r="H43" s="30">
         <v>40</v>
@@ -29858,7 +29870,7 @@
   </sheetPr>
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -5812,7 +5812,7 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7156,7 +7156,9 @@
       <c r="E36" s="180">
         <v>645</v>
       </c>
-      <c r="F36" s="199"/>
+      <c r="F36" s="199">
+        <v>44474</v>
+      </c>
       <c r="H36" s="30">
         <v>33</v>
       </c>
@@ -7344,7 +7346,9 @@
       <c r="E41" s="202">
         <v>635</v>
       </c>
-      <c r="F41" s="199"/>
+      <c r="F41" s="199">
+        <v>44474</v>
+      </c>
       <c r="H41" s="30">
         <v>38</v>
       </c>
@@ -7380,7 +7384,9 @@
       <c r="E42" s="202">
         <v>636</v>
       </c>
-      <c r="F42" s="199"/>
+      <c r="F42" s="199">
+        <v>44474</v>
+      </c>
       <c r="H42" s="30">
         <v>39</v>
       </c>
@@ -7416,7 +7422,9 @@
       <c r="E43" s="202">
         <v>643</v>
       </c>
-      <c r="F43" s="199"/>
+      <c r="F43" s="199">
+        <v>44474</v>
+      </c>
       <c r="H43" s="30">
         <v>40</v>
       </c>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 1 " sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="85">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -562,16 +562,7 @@
     <t>AZUMIATLA</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>CANCELADA</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1852,17 +1843,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3322,25 +3302,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -5640,12 +5620,12 @@
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="228">
+      <c r="E89" s="223">
         <f>E85-G85</f>
         <v>0</v>
       </c>
-      <c r="F89" s="229"/>
-      <c r="G89" s="230"/>
+      <c r="F89" s="224"/>
+      <c r="G89" s="225"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5661,11 +5641,11 @@
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="231" t="s">
+      <c r="E91" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="231"/>
-      <c r="G91" s="231"/>
+      <c r="F91" s="226"/>
+      <c r="G91" s="226"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5811,7 +5791,7 @@
   </sheetPr>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -5832,19 +5812,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="232" t="s">
+      <c r="C1" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
       <c r="F1" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="232" t="s">
+      <c r="J1" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
@@ -8186,10 +8166,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="235"/>
+      <c r="C1" s="230"/>
       <c r="D1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8209,10 +8189,10 @@
       <c r="F2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="236" t="s">
+      <c r="G2" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="237"/>
+      <c r="H2" s="232"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65">
@@ -8478,25 +8458,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="219" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -10869,12 +10849,12 @@
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="228">
+      <c r="E95" s="223">
         <f>E91-G91</f>
         <v>0</v>
       </c>
-      <c r="F95" s="229"/>
-      <c r="G95" s="230"/>
+      <c r="F95" s="224"/>
+      <c r="G95" s="225"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -10890,11 +10870,11 @@
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="231" t="s">
+      <c r="E97" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="231"/>
-      <c r="G97" s="231"/>
+      <c r="F97" s="226"/>
+      <c r="G97" s="226"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -11037,25 +11017,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -14212,12 +14192,12 @@
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="228">
+      <c r="E124" s="223">
         <f>E120-G120</f>
         <v>0</v>
       </c>
-      <c r="F124" s="229"/>
-      <c r="G124" s="230"/>
+      <c r="F124" s="224"/>
+      <c r="G124" s="225"/>
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -14233,11 +14213,11 @@
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="231" t="s">
+      <c r="E126" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="231"/>
-      <c r="G126" s="231"/>
+      <c r="F126" s="226"/>
+      <c r="G126" s="226"/>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -14378,25 +14358,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -16841,12 +16821,12 @@
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="228">
+      <c r="E97" s="223">
         <f>E93-G93</f>
         <v>0</v>
       </c>
-      <c r="F97" s="229"/>
-      <c r="G97" s="230"/>
+      <c r="F97" s="224"/>
+      <c r="G97" s="225"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -16862,11 +16842,11 @@
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="231" t="s">
+      <c r="E99" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="231"/>
-      <c r="G99" s="231"/>
+      <c r="F99" s="226"/>
+      <c r="G99" s="226"/>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -17015,25 +16995,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -20167,12 +20147,12 @@
       <c r="B125" s="165"/>
       <c r="C125" s="36"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="228">
+      <c r="E125" s="223">
         <f>E121-G121</f>
         <v>0</v>
       </c>
-      <c r="F125" s="229"/>
-      <c r="G125" s="230"/>
+      <c r="F125" s="224"/>
+      <c r="G125" s="225"/>
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -20188,11 +20168,11 @@
       <c r="B127" s="165"/>
       <c r="C127" s="36"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="231" t="s">
+      <c r="E127" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="231"/>
-      <c r="G127" s="231"/>
+      <c r="F127" s="226"/>
+      <c r="G127" s="226"/>
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -20335,25 +20315,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="219" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -22447,12 +22427,12 @@
       <c r="B85" s="165"/>
       <c r="C85" s="36"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="228">
+      <c r="E85" s="223">
         <f>E81-G81</f>
         <v>0</v>
       </c>
-      <c r="F85" s="229"/>
-      <c r="G85" s="230"/>
+      <c r="F85" s="224"/>
+      <c r="G85" s="225"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -22468,11 +22448,11 @@
       <c r="B87" s="165"/>
       <c r="C87" s="36"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="231" t="s">
+      <c r="E87" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="231"/>
-      <c r="G87" s="231"/>
+      <c r="F87" s="226"/>
+      <c r="G87" s="226"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -22614,25 +22594,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="219" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -25465,12 +25445,12 @@
       <c r="B114" s="165"/>
       <c r="C114" s="36"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="228">
+      <c r="E114" s="223">
         <f>E110-G110</f>
         <v>0</v>
       </c>
-      <c r="F114" s="229"/>
-      <c r="G114" s="230"/>
+      <c r="F114" s="224"/>
+      <c r="G114" s="225"/>
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -25486,11 +25466,11 @@
       <c r="B116" s="165"/>
       <c r="C116" s="36"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="231" t="s">
+      <c r="E116" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="F116" s="231"/>
-      <c r="G116" s="231"/>
+      <c r="F116" s="226"/>
+      <c r="G116" s="226"/>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -25635,25 +25615,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -29730,12 +29710,12 @@
       <c r="B160" s="165"/>
       <c r="C160" s="36"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="228">
+      <c r="E160" s="223">
         <f>E156-G156</f>
         <v>0</v>
       </c>
-      <c r="F160" s="229"/>
-      <c r="G160" s="230"/>
+      <c r="F160" s="224"/>
+      <c r="G160" s="225"/>
       <c r="I160" s="2"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -29751,11 +29731,11 @@
       <c r="B162" s="165"/>
       <c r="C162" s="36"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="231" t="s">
+      <c r="E162" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="F162" s="231"/>
-      <c r="G162" s="231"/>
+      <c r="F162" s="226"/>
+      <c r="G162" s="226"/>
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -29878,9 +29858,9 @@
   </sheetPr>
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29899,25 +29879,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="77"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
@@ -31852,11 +31832,15 @@
       <c r="E74" s="20">
         <v>3775</v>
       </c>
-      <c r="F74" s="49"/>
-      <c r="G74" s="27"/>
+      <c r="F74" s="49">
+        <v>44458</v>
+      </c>
+      <c r="G74" s="27">
+        <v>3775</v>
+      </c>
       <c r="H74" s="28">
         <f t="shared" si="0"/>
-        <v>3775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -31926,11 +31910,15 @@
       <c r="E77" s="20">
         <v>1905</v>
       </c>
-      <c r="F77" s="49"/>
-      <c r="G77" s="27"/>
+      <c r="F77" s="49">
+        <v>44458</v>
+      </c>
+      <c r="G77" s="27">
+        <v>1905</v>
+      </c>
       <c r="H77" s="28">
         <f t="shared" si="0"/>
-        <v>1905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -31986,23 +31974,25 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="218" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="219">
+      <c r="A80" s="157">
+        <v>44457</v>
+      </c>
+      <c r="B80" s="164">
         <f t="shared" si="2"/>
         <v>2518</v>
       </c>
-      <c r="C80" s="220"/>
-      <c r="D80" s="221" t="s">
-        <v>85</v>
-      </c>
-      <c r="E80" s="222"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="20">
+        <v>90</v>
+      </c>
       <c r="F80" s="49"/>
       <c r="G80" s="27"/>
       <c r="H80" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -32020,11 +32010,15 @@
       <c r="E81" s="20">
         <v>2024</v>
       </c>
-      <c r="F81" s="49"/>
-      <c r="G81" s="27"/>
+      <c r="F81" s="49">
+        <v>44458</v>
+      </c>
+      <c r="G81" s="27">
+        <v>2024</v>
+      </c>
       <c r="H81" s="28">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -32042,11 +32036,15 @@
       <c r="E82" s="20">
         <v>12712</v>
       </c>
-      <c r="F82" s="49"/>
-      <c r="G82" s="27"/>
+      <c r="F82" s="49">
+        <v>44458</v>
+      </c>
+      <c r="G82" s="27">
+        <v>12712</v>
+      </c>
       <c r="H82" s="28">
         <f t="shared" si="0"/>
-        <v>12712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -32058,8 +32056,8 @@
         <v>2521</v>
       </c>
       <c r="C83" s="170"/>
-      <c r="D83" s="223" t="s">
-        <v>86</v>
+      <c r="D83" s="218" t="s">
+        <v>84</v>
       </c>
       <c r="E83" s="20">
         <v>0</v>
@@ -32086,11 +32084,15 @@
       <c r="E84" s="20">
         <v>5553</v>
       </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="27"/>
+      <c r="F84" s="49">
+        <v>44458</v>
+      </c>
+      <c r="G84" s="27">
+        <v>5553</v>
+      </c>
       <c r="H84" s="28">
         <f t="shared" si="0"/>
-        <v>5553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -32108,40 +32110,48 @@
       <c r="E85" s="20">
         <v>4843</v>
       </c>
-      <c r="F85" s="49"/>
-      <c r="G85" s="27"/>
+      <c r="F85" s="49">
+        <v>44458</v>
+      </c>
+      <c r="G85" s="27">
+        <v>4843</v>
+      </c>
       <c r="H85" s="28">
         <f t="shared" si="0"/>
-        <v>4843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="218"/>
-      <c r="B86" s="219">
+      <c r="A86" s="157">
+        <v>44458</v>
+      </c>
+      <c r="B86" s="164">
         <f t="shared" si="2"/>
         <v>2524</v>
       </c>
-      <c r="C86" s="220"/>
-      <c r="D86" s="221" t="s">
-        <v>87</v>
-      </c>
-      <c r="E86" s="222"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="20">
+        <v>5455</v>
+      </c>
       <c r="F86" s="49"/>
       <c r="G86" s="27"/>
       <c r="H86" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="18">
+      <c r="A87" s="157">
         <v>44459</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="164">
         <f t="shared" si="2"/>
         <v>2525</v>
       </c>
-      <c r="C87" s="170"/>
+      <c r="C87" s="171"/>
       <c r="D87" s="43" t="s">
         <v>26</v>
       </c>
@@ -33327,16 +33337,16 @@
       <c r="D156" s="2"/>
       <c r="E156" s="37">
         <f>SUM(E4:E155)</f>
-        <v>651080</v>
+        <v>656625</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>575066</v>
+        <v>605878</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>76014</v>
+        <v>50747</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -33378,12 +33388,12 @@
       <c r="B160" s="165"/>
       <c r="C160" s="36"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="228">
+      <c r="E160" s="223">
         <f>E156-G156</f>
-        <v>76014</v>
-      </c>
-      <c r="F160" s="229"/>
-      <c r="G160" s="230"/>
+        <v>50747</v>
+      </c>
+      <c r="F160" s="224"/>
+      <c r="G160" s="225"/>
       <c r="I160" s="2"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -33399,11 +33409,11 @@
       <c r="B162" s="165"/>
       <c r="C162" s="36"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="231" t="s">
+      <c r="E162" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="F162" s="231"/>
-      <c r="G162" s="231"/>
+      <c r="F162" s="226"/>
+      <c r="G162" s="226"/>
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="85">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -29859,8 +29859,8 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29868,7 +29868,7 @@
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="13.140625" style="166" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="42" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="89" customWidth="1"/>
     <col min="7" max="7" width="18" style="90" customWidth="1"/>
@@ -31746,11 +31746,15 @@
       <c r="E71" s="20">
         <v>45</v>
       </c>
-      <c r="F71" s="49"/>
-      <c r="G71" s="27"/>
+      <c r="F71" s="49">
+        <v>44464</v>
+      </c>
+      <c r="G71" s="27">
+        <v>45</v>
+      </c>
       <c r="H71" s="28">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L71" s="62"/>
       <c r="M71" s="62"/>
@@ -31988,11 +31992,15 @@
       <c r="E80" s="20">
         <v>90</v>
       </c>
-      <c r="F80" s="49"/>
-      <c r="G80" s="27"/>
+      <c r="F80" s="49">
+        <v>44464</v>
+      </c>
+      <c r="G80" s="27">
+        <v>90</v>
+      </c>
       <c r="H80" s="28">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -32136,11 +32144,15 @@
       <c r="E86" s="20">
         <v>5455</v>
       </c>
-      <c r="F86" s="49"/>
-      <c r="G86" s="27"/>
+      <c r="F86" s="49">
+        <v>44462</v>
+      </c>
+      <c r="G86" s="27">
+        <v>5455</v>
+      </c>
       <c r="H86" s="28">
         <f t="shared" si="0"/>
-        <v>5455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -32284,11 +32296,15 @@
       <c r="E92" s="27">
         <v>34092</v>
       </c>
-      <c r="F92" s="214"/>
-      <c r="G92" s="27"/>
+      <c r="F92" s="214">
+        <v>44463</v>
+      </c>
+      <c r="G92" s="27">
+        <v>34092</v>
+      </c>
       <c r="H92" s="28">
         <f t="shared" si="0"/>
-        <v>34092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -32306,11 +32322,15 @@
       <c r="E93" s="27">
         <v>4642</v>
       </c>
-      <c r="F93" s="214"/>
-      <c r="G93" s="27"/>
+      <c r="F93" s="214">
+        <v>44464</v>
+      </c>
+      <c r="G93" s="27">
+        <v>4642</v>
+      </c>
       <c r="H93" s="28">
         <f t="shared" si="0"/>
-        <v>4642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -32380,11 +32400,15 @@
       <c r="E96" s="27">
         <v>883</v>
       </c>
-      <c r="F96" s="214"/>
-      <c r="G96" s="27"/>
+      <c r="F96" s="214">
+        <v>44462</v>
+      </c>
+      <c r="G96" s="27">
+        <v>883</v>
+      </c>
       <c r="H96" s="28">
         <f t="shared" si="0"/>
-        <v>883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -32402,251 +32426,377 @@
       <c r="E97" s="27">
         <v>1158</v>
       </c>
-      <c r="F97" s="214"/>
-      <c r="G97" s="27"/>
+      <c r="F97" s="214">
+        <v>44462</v>
+      </c>
+      <c r="G97" s="27">
+        <v>1158</v>
+      </c>
       <c r="H97" s="28">
         <f t="shared" si="0"/>
-        <v>1158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="157"/>
+      <c r="A98" s="157">
+        <v>44462</v>
+      </c>
       <c r="B98" s="12">
         <f t="shared" si="2"/>
         <v>2536</v>
       </c>
       <c r="C98" s="213"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="214"/>
-      <c r="G98" s="27"/>
+      <c r="D98" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="27">
+        <v>5421</v>
+      </c>
+      <c r="F98" s="214">
+        <v>44464</v>
+      </c>
+      <c r="G98" s="27">
+        <v>5421</v>
+      </c>
       <c r="H98" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="157"/>
+      <c r="A99" s="157">
+        <v>44462</v>
+      </c>
       <c r="B99" s="12">
         <f t="shared" si="2"/>
         <v>2537</v>
       </c>
       <c r="C99" s="213"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="214"/>
-      <c r="G99" s="27"/>
+      <c r="D99" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="27">
+        <v>120</v>
+      </c>
+      <c r="F99" s="214">
+        <v>44464</v>
+      </c>
+      <c r="G99" s="27">
+        <v>120</v>
+      </c>
       <c r="H99" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="157"/>
+      <c r="A100" s="157">
+        <v>44463</v>
+      </c>
       <c r="B100" s="12">
         <f t="shared" si="2"/>
         <v>2538</v>
       </c>
       <c r="C100" s="213"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="214"/>
-      <c r="G100" s="27"/>
+      <c r="D100" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="27">
+        <v>33912</v>
+      </c>
+      <c r="F100" s="214">
+        <v>44465</v>
+      </c>
+      <c r="G100" s="27">
+        <v>33912</v>
+      </c>
       <c r="H100" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="157"/>
+      <c r="A101" s="157">
+        <v>44463</v>
+      </c>
       <c r="B101" s="12">
         <f t="shared" si="2"/>
         <v>2539</v>
       </c>
       <c r="C101" s="213"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="214"/>
-      <c r="G101" s="27"/>
+      <c r="D101" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="27">
+        <v>4509</v>
+      </c>
+      <c r="F101" s="214">
+        <v>44466</v>
+      </c>
+      <c r="G101" s="27">
+        <v>4509</v>
+      </c>
       <c r="H101" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="157"/>
+      <c r="A102" s="157">
+        <v>44463</v>
+      </c>
       <c r="B102" s="12">
         <f t="shared" si="2"/>
         <v>2540</v>
       </c>
       <c r="C102" s="213"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="214"/>
-      <c r="G102" s="27"/>
+      <c r="D102" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="27">
+        <v>1960</v>
+      </c>
+      <c r="F102" s="214">
+        <v>44464</v>
+      </c>
+      <c r="G102" s="27">
+        <v>1960</v>
+      </c>
       <c r="H102" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="157"/>
+      <c r="A103" s="157">
+        <v>44463</v>
+      </c>
       <c r="B103" s="12">
         <f t="shared" si="2"/>
         <v>2541</v>
       </c>
       <c r="C103" s="213"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="214"/>
-      <c r="G103" s="27"/>
+      <c r="D103" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="27">
+        <v>7363</v>
+      </c>
+      <c r="F103" s="214">
+        <v>44464</v>
+      </c>
+      <c r="G103" s="27">
+        <v>7363</v>
+      </c>
       <c r="H103" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="157"/>
+      <c r="A104" s="157">
+        <v>44464</v>
+      </c>
       <c r="B104" s="12">
         <f t="shared" si="2"/>
         <v>2542</v>
       </c>
       <c r="C104" s="213"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="27"/>
+      <c r="D104" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="27">
+        <v>5890</v>
+      </c>
       <c r="F104" s="214"/>
       <c r="G104" s="27"/>
       <c r="H104" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="157"/>
+      <c r="A105" s="157">
+        <v>44464</v>
+      </c>
       <c r="B105" s="12">
         <f t="shared" si="2"/>
         <v>2543</v>
       </c>
       <c r="C105" s="213"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="27"/>
+      <c r="D105" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="27">
+        <v>3723</v>
+      </c>
       <c r="F105" s="214"/>
       <c r="G105" s="27"/>
       <c r="H105" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="157"/>
+      <c r="A106" s="157">
+        <v>44464</v>
+      </c>
       <c r="B106" s="12">
         <f t="shared" si="2"/>
         <v>2544</v>
       </c>
       <c r="C106" s="213"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="214"/>
-      <c r="G106" s="27"/>
+      <c r="D106" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="27">
+        <v>13320</v>
+      </c>
+      <c r="F106" s="214">
+        <v>44465</v>
+      </c>
+      <c r="G106" s="27">
+        <v>13320</v>
+      </c>
       <c r="H106" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="157"/>
+      <c r="A107" s="157">
+        <v>44465</v>
+      </c>
       <c r="B107" s="12">
         <f t="shared" si="2"/>
         <v>2545</v>
       </c>
       <c r="C107" s="213"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="214"/>
-      <c r="G107" s="27"/>
+      <c r="D107" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="27">
+        <v>3305</v>
+      </c>
+      <c r="F107" s="214">
+        <v>44466</v>
+      </c>
+      <c r="G107" s="27">
+        <v>3305</v>
+      </c>
       <c r="H107" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="157"/>
+      <c r="A108" s="157">
+        <v>44465</v>
+      </c>
       <c r="B108" s="12">
         <f t="shared" si="2"/>
         <v>2546</v>
       </c>
       <c r="C108" s="213"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="27"/>
+      <c r="D108" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E108" s="27">
+        <v>31597</v>
+      </c>
       <c r="F108" s="214"/>
       <c r="G108" s="27"/>
       <c r="H108" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31597</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="157"/>
+      <c r="A109" s="157">
+        <v>44466</v>
+      </c>
       <c r="B109" s="12">
         <f t="shared" si="2"/>
         <v>2547</v>
       </c>
       <c r="C109" s="213"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="27"/>
+      <c r="D109" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="27">
+        <v>90</v>
+      </c>
       <c r="F109" s="214"/>
       <c r="G109" s="27"/>
       <c r="H109" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="157"/>
+      <c r="A110" s="157">
+        <v>44466</v>
+      </c>
       <c r="B110" s="12">
         <f t="shared" si="2"/>
         <v>2548</v>
       </c>
       <c r="C110" s="213"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="27"/>
+      <c r="D110" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="27">
+        <v>3443</v>
+      </c>
       <c r="F110" s="214"/>
       <c r="G110" s="27"/>
       <c r="H110" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="157"/>
+      <c r="A111" s="157">
+        <v>44466</v>
+      </c>
       <c r="B111" s="12">
         <f t="shared" si="2"/>
         <v>2549</v>
       </c>
       <c r="C111" s="213"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="27"/>
+      <c r="D111" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="27">
+        <v>2625</v>
+      </c>
       <c r="F111" s="214"/>
       <c r="G111" s="27"/>
       <c r="H111" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="157"/>
+      <c r="A112" s="157">
+        <v>44466</v>
+      </c>
       <c r="B112" s="12">
         <f t="shared" si="2"/>
         <v>2550</v>
       </c>
       <c r="C112" s="213"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="27"/>
+      <c r="D112" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="27">
+        <v>8388</v>
+      </c>
       <c r="F112" s="214"/>
       <c r="G112" s="27"/>
       <c r="H112" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -33337,16 +33487,16 @@
       <c r="D156" s="2"/>
       <c r="E156" s="37">
         <f>SUM(E4:E155)</f>
-        <v>656625</v>
+        <v>782291</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>605878</v>
+        <v>722153</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>50747</v>
+        <v>60138</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -33390,7 +33540,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="223">
         <f>E156-G156</f>
-        <v>50747</v>
+        <v>60138</v>
       </c>
       <c r="F160" s="224"/>
       <c r="G160" s="225"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/CREDITOS  4 CARNES  11 SUR   SEPTIEMBRE       2021.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="85">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES </t>
   </si>
@@ -29859,8 +29859,8 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <pane ySplit="3" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30904,11 +30904,15 @@
       <c r="E41" s="20">
         <v>2613</v>
       </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="27"/>
+      <c r="F41" s="49">
+        <v>44468</v>
+      </c>
+      <c r="G41" s="27">
+        <v>2613</v>
+      </c>
       <c r="H41" s="16">
         <f t="shared" si="0"/>
-        <v>2613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32608,11 +32612,15 @@
       <c r="E104" s="27">
         <v>5890</v>
       </c>
-      <c r="F104" s="214"/>
-      <c r="G104" s="27"/>
+      <c r="F104" s="214">
+        <v>44469</v>
+      </c>
+      <c r="G104" s="27">
+        <v>5890</v>
+      </c>
       <c r="H104" s="28">
         <f t="shared" si="0"/>
-        <v>5890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -32630,11 +32638,15 @@
       <c r="E105" s="27">
         <v>3723</v>
       </c>
-      <c r="F105" s="214"/>
-      <c r="G105" s="27"/>
+      <c r="F105" s="214">
+        <v>44467</v>
+      </c>
+      <c r="G105" s="27">
+        <v>3723</v>
+      </c>
       <c r="H105" s="28">
         <f t="shared" si="0"/>
-        <v>3723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -32704,11 +32716,15 @@
       <c r="E108" s="27">
         <v>31597</v>
       </c>
-      <c r="F108" s="214"/>
-      <c r="G108" s="27"/>
+      <c r="F108" s="214">
+        <v>44468</v>
+      </c>
+      <c r="G108" s="27">
+        <v>31597</v>
+      </c>
       <c r="H108" s="28">
         <f t="shared" si="0"/>
-        <v>31597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -32726,11 +32742,15 @@
       <c r="E109" s="27">
         <v>90</v>
       </c>
-      <c r="F109" s="214"/>
-      <c r="G109" s="27"/>
+      <c r="F109" s="214">
+        <v>44468</v>
+      </c>
+      <c r="G109" s="27">
+        <v>90</v>
+      </c>
       <c r="H109" s="28">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -32770,11 +32790,15 @@
       <c r="E111" s="27">
         <v>2625</v>
       </c>
-      <c r="F111" s="214"/>
-      <c r="G111" s="27"/>
+      <c r="F111" s="214">
+        <v>44469</v>
+      </c>
+      <c r="G111" s="27">
+        <v>2625</v>
+      </c>
       <c r="H111" s="28">
         <f t="shared" si="0"/>
-        <v>2625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -32792,123 +32816,181 @@
       <c r="E112" s="27">
         <v>8388</v>
       </c>
-      <c r="F112" s="214"/>
-      <c r="G112" s="27"/>
+      <c r="F112" s="214">
+        <v>44467</v>
+      </c>
+      <c r="G112" s="27">
+        <v>8388</v>
+      </c>
       <c r="H112" s="28">
         <f t="shared" si="0"/>
-        <v>8388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="157"/>
+      <c r="A113" s="157">
+        <v>44467</v>
+      </c>
       <c r="B113" s="12">
         <f t="shared" si="2"/>
         <v>2551</v>
       </c>
       <c r="C113" s="213"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="214"/>
-      <c r="G113" s="27"/>
+      <c r="D113" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" s="27">
+        <v>10327</v>
+      </c>
+      <c r="F113" s="214">
+        <v>44468</v>
+      </c>
+      <c r="G113" s="27">
+        <v>10327</v>
+      </c>
       <c r="H113" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="157"/>
+      <c r="A114" s="157">
+        <v>44467</v>
+      </c>
       <c r="B114" s="12">
         <f t="shared" si="2"/>
         <v>2552</v>
       </c>
       <c r="C114" s="213"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="214"/>
-      <c r="G114" s="27"/>
+      <c r="D114" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="27">
+        <v>3185</v>
+      </c>
+      <c r="F114" s="214">
+        <v>44468</v>
+      </c>
+      <c r="G114" s="27">
+        <v>3185</v>
+      </c>
       <c r="H114" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="157"/>
+      <c r="A115" s="157">
+        <v>44467</v>
+      </c>
       <c r="B115" s="12">
         <f t="shared" si="2"/>
         <v>2553</v>
       </c>
       <c r="C115" s="213"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="214"/>
-      <c r="G115" s="27"/>
+      <c r="D115" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="27">
+        <v>2306</v>
+      </c>
+      <c r="F115" s="214">
+        <v>44468</v>
+      </c>
+      <c r="G115" s="27">
+        <v>2306</v>
+      </c>
       <c r="H115" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="157"/>
+      <c r="A116" s="157">
+        <v>44468</v>
+      </c>
       <c r="B116" s="12">
         <f t="shared" si="2"/>
         <v>2554</v>
       </c>
       <c r="C116" s="213"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="27"/>
+      <c r="D116" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="27">
+        <v>45</v>
+      </c>
       <c r="F116" s="214"/>
       <c r="G116" s="27"/>
       <c r="H116" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="157"/>
+      <c r="A117" s="157">
+        <v>44468</v>
+      </c>
       <c r="B117" s="12">
         <f t="shared" si="2"/>
         <v>2555</v>
       </c>
       <c r="C117" s="213"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="27"/>
+      <c r="D117" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E117" s="27">
+        <v>34606</v>
+      </c>
       <c r="F117" s="214"/>
       <c r="G117" s="27"/>
       <c r="H117" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34606</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="157"/>
+      <c r="A118" s="157">
+        <v>44469</v>
+      </c>
       <c r="B118" s="12">
         <f t="shared" si="2"/>
         <v>2556</v>
       </c>
       <c r="C118" s="213"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="27"/>
+      <c r="D118" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="27">
+        <v>10697</v>
+      </c>
       <c r="F118" s="214"/>
       <c r="G118" s="27"/>
       <c r="H118" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10697</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="157"/>
+      <c r="A119" s="157">
+        <v>44469</v>
+      </c>
       <c r="B119" s="12">
         <f t="shared" si="2"/>
         <v>2557</v>
       </c>
       <c r="C119" s="213"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="27"/>
+      <c r="D119" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="27">
+        <v>385</v>
+      </c>
       <c r="F119" s="214"/>
       <c r="G119" s="27"/>
       <c r="H119" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -33487,16 +33569,16 @@
       <c r="D156" s="2"/>
       <c r="E156" s="37">
         <f>SUM(E4:E155)</f>
-        <v>782291</v>
+        <v>843842</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37">
         <f>SUM(G4:G155)</f>
-        <v>722153</v>
+        <v>792897</v>
       </c>
       <c r="H156" s="38">
         <f>SUM(H4:H155)</f>
-        <v>60138</v>
+        <v>50945</v>
       </c>
       <c r="I156" s="2"/>
     </row>
@@ -33540,7 +33622,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="223">
         <f>E156-G156</f>
-        <v>60138</v>
+        <v>50945</v>
       </c>
       <c r="F160" s="224"/>
       <c r="G160" s="225"/>
